--- a/src/asset/download/metode-biseksi.xlsx
+++ b/src/asset/download/metode-biseksi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E09CC-F000-4C1B-941B-054067369A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD62CBF-ED54-4FD6-8F3F-6F4DBBA83B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8BBCEC0-EDE0-4F23-B41F-B850B8E3110F}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62AB5A-4421-4B7C-8AD7-D2627C6D3988}">
   <dimension ref="A1:J536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/asset/download/metode-biseksi.xlsx
+++ b/src/asset/download/metode-biseksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD62CBF-ED54-4FD6-8F3F-6F4DBBA83B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A89A06-90BD-471B-B3A8-46E25D4D5CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8BBCEC0-EDE0-4F23-B41F-B850B8E3110F}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62AB5A-4421-4B7C-8AD7-D2627C6D3988}">
   <dimension ref="A1:J536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/asset/download/metode-biseksi.xlsx
+++ b/src/asset/download/metode-biseksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A89A06-90BD-471B-B3A8-46E25D4D5CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D7C19-01E3-443F-9561-18545957954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8BBCEC0-EDE0-4F23-B41F-B850B8E3110F}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62AB5A-4421-4B7C-8AD7-D2627C6D3988}">
   <dimension ref="A1:J536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
